--- a/Rogue-Lite/Assets/Game/Resources/NPCs/Camp3.xlsx
+++ b/Rogue-Lite/Assets/Game/Resources/NPCs/Camp3.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developer\Unity Github\jwrs-prac2\v5\practica-2\Rogue-Lite\Assets\Game\Resources\NPCs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14772"/>
-  </bookViews>
   <sheets>
-    <sheet name="Mago" sheetId="1" r:id="rId1"/>
-    <sheet name="Tipo de la joyería" sheetId="2" r:id="rId2"/>
-    <sheet name="Tipo de la tintorería" sheetId="3" r:id="rId3"/>
-    <sheet name="Armero" sheetId="4" r:id="rId4"/>
-    <sheet name="Herrero" sheetId="5" r:id="rId5"/>
+    <sheet state="visible" name="Mago" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tipo de la joyería" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Tipo de la tintorería" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Armero" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Herrero" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="408">
   <si>
     <t>Index</t>
   </si>
@@ -358,33 +350,87 @@
     <t>Tras completar el juego por primera vez</t>
   </si>
   <si>
+    <t>I see you have become very poweful.</t>
+  </si>
+  <si>
     <t>Veo que te has vuelto muy poderoso.</t>
   </si>
   <si>
+    <t>Ich sehe, Sie sind sehr mächtig geworden.</t>
+  </si>
+  <si>
+    <t>I'd say you runs in the cave must be now a cake walk.</t>
+  </si>
+  <si>
     <t>Seguro que avanzar por la cueva debe de ser un paseo para ti.</t>
   </si>
   <si>
+    <t>Das Vorankommen in der Höhle ist sicher ein Spaziergang für Sie.</t>
+  </si>
+  <si>
+    <t>What if I told you I've found a way to make more precious items appear?</t>
+  </si>
+  <si>
     <t>¿Y si te dijese que he encontrado una forma de hacer que aparezcan recompensas más suculentas?</t>
   </si>
   <si>
+    <t>Was wäre, wenn ich Ihnen sagen würde, dass ich einen Weg gefunden habe, bessere Belohnungen erscheinen zu lassen?</t>
+  </si>
+  <si>
+    <t>Yes, it is true, you have my word.</t>
+  </si>
+  <si>
     <t>Sí, sí, como lo oyes.</t>
   </si>
   <si>
+    <t>Ja, ja, wie Sie es hören.</t>
+  </si>
+  <si>
+    <t>It doesn't come free though. But not an expensive one, stay calm.</t>
+  </si>
+  <si>
     <t>Lo único a destacar es que esto tiene un coste. Pero no económico.</t>
   </si>
   <si>
+    <t>Es ist nur zu beachten, dass dies mit Kosten verbunden ist. Aber nicht in finanzieller Hinsicht.</t>
+  </si>
+  <si>
+    <t>I can strenghten the dangers of the cave with my powers.</t>
+  </si>
+  <si>
     <t>Si uso mis poderes para ello, las amenazas de la cueva también se fortalecerán.</t>
   </si>
   <si>
+    <t>Wenn ich meine Kräfte dafür einsetze, werden auch die Bedrohungen in der Höhle verstärkt.</t>
+  </si>
+  <si>
+    <t>If your enemies become too strong you can alway tell me and I'll undo my spells.</t>
+  </si>
+  <si>
     <t>Si dichas amenazas se vuelven demasiado poderosas para ti, siempre puedo revertir mis conjuros.</t>
   </si>
   <si>
+    <t>Wenn solche Bedrohungen zu mächtig für Sie werden, kann ich meine Zaubersprüche jederzeit umkehren.</t>
+  </si>
+  <si>
+    <t>Go ahead, try it.</t>
+  </si>
+  <si>
     <t>Vamos, pruébalo.</t>
   </si>
   <si>
+    <t>Los, versuchen Sie es.</t>
+  </si>
+  <si>
+    <t>Have fun in your adventure, again.</t>
+  </si>
+  <si>
     <t>Que disfrutes de nuevo la aventura.</t>
   </si>
   <si>
+    <t>Genießen Sie das Abenteuer noch einmal.</t>
+  </si>
+  <si>
     <t>Presentación del personaje, con voz pícara.</t>
   </si>
   <si>
@@ -520,7 +566,7 @@
     <t>Oh, Dios mío, ¿pero qué ven mis ojos? &lt;bounce&gt;( ° ͟ʖ °)</t>
   </si>
   <si>
-    <t>Bei den Göttern, was sehen meine Augen?</t>
+    <t>Bei den Göttern, was sehen meine Augen? &lt;bounce&gt;( ° ͟ʖ °)</t>
   </si>
   <si>
     <t>How dare you walk arround dressed in such "clothes"?</t>
@@ -547,7 +593,7 @@
     <t>La moda es importante, aunque no lo creas. &lt;bounce&gt;( ° ͟ʖ °)</t>
   </si>
   <si>
-    <t>Mode ist wichtig, auch wenn du das nicht glauben willst.</t>
+    <t>Mode ist wichtig, auch wenn du das nicht glauben willst. &lt;bounce&gt;( ° ͟ʖ °)</t>
   </si>
   <si>
     <t>Look, honey, let me take care of that for you, will you?  &lt;bounce&gt;( ͡° ͜ʖ ͡°)</t>
@@ -583,7 +629,7 @@
     <t>¡Ay, sigues vivo! &lt;bounce&gt;°ロ°</t>
   </si>
   <si>
-    <t>Oh, du bist noch am Leben!</t>
+    <t>Oh, du bist noch am Leben!  &lt;bounce&gt;°ロ°</t>
   </si>
   <si>
     <t>It is my pleasure to see you again, honey.</t>
@@ -601,13 +647,16 @@
     <t>Venga, mira todo lo que tengo. Es todo para tí. &lt;bounce&gt;( ͡° ͜ʖ ͡°)</t>
   </si>
   <si>
-    <t>Komm schon, schau was ich auf Lager habe. Es ist alles für dich.</t>
+    <t>Komm schon, schau was ich auf Lager habe. Es ist alles für dich. &lt;bounce&gt;( ͡° ͜ʖ ͡°)</t>
   </si>
   <si>
     <t>Have a nice crusade! &lt;bounce&gt;ʢoᴥoʡ</t>
   </si>
   <si>
     <t>Que pases una buena cruzada. &lt;bounce&gt;ʢoᴥoʡ</t>
+  </si>
+  <si>
+    <t>Ich wünsche Ihnen einen schönen Kreuzzug. &lt;bounce&gt;ʢoᴥoʡ</t>
   </si>
   <si>
     <t>El armero es un hombre duro pero afable</t>
@@ -1196,20 +1245,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1219,7 +1267,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1241,69 +1289,96 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1493,30 +1568,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
-    <col min="4" max="4" width="99.88671875" customWidth="1"/>
-    <col min="5" max="5" width="95.109375" customWidth="1"/>
-    <col min="6" max="6" width="105.6640625" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="14.86"/>
+    <col customWidth="1" min="3" max="3" width="47.43"/>
+    <col customWidth="1" min="4" max="4" width="99.86"/>
+    <col customWidth="1" min="5" max="5" width="95.14"/>
+    <col customWidth="1" min="6" max="6" width="105.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,12 +1608,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -1556,12 +1628,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -1574,12 +1646,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -1592,12 +1664,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -1610,12 +1682,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1628,12 +1700,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -1646,12 +1718,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
@@ -1664,12 +1736,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
@@ -1682,12 +1754,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
@@ -1700,12 +1772,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -1720,12 +1792,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
@@ -1738,12 +1810,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
@@ -1756,12 +1828,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
@@ -1774,12 +1846,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>46</v>
@@ -1794,12 +1866,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
@@ -1812,12 +1884,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
@@ -1830,12 +1902,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
@@ -1848,12 +1920,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7" t="s">
@@ -1866,12 +1938,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>62</v>
@@ -1886,12 +1958,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -1904,12 +1976,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -1922,12 +1994,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
@@ -1940,12 +2012,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="5">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -1958,12 +2030,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
@@ -1976,12 +2048,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>81</v>
@@ -1996,12 +2068,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7" t="s">
@@ -2014,12 +2086,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
@@ -2032,12 +2104,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="5">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
@@ -2050,12 +2122,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="5">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7" t="s">
@@ -2068,12 +2140,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="8">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>97</v>
@@ -2088,12 +2160,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="8">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -2106,12 +2178,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="8">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="7" t="s">
@@ -2124,12 +2196,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
@@ -2142,157 +2214,192 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="E35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="E43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" customWidth="1"/>
-    <col min="5" max="5" width="92.5546875" customWidth="1"/>
-    <col min="6" max="6" width="115.6640625" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="42.86"/>
+    <col customWidth="1" min="4" max="4" width="78.86"/>
+    <col customWidth="1" min="5" max="5" width="92.57"/>
+    <col customWidth="1" min="6" max="6" width="115.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,319 +2419,319 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2632,7 +2739,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2640,7 +2747,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2648,7 +2755,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2656,7 +2763,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2664,7 +2771,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2672,7 +2779,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2680,7 +2787,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2688,7 +2795,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2696,7 +2803,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2704,7 +2811,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2712,7 +2819,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2720,7 +2827,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2728,7 +2835,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2736,7 +2843,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2744,7 +2851,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2752,7 +2859,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2760,7 +2867,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2768,7 +2875,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2776,7 +2883,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2784,7 +2891,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2793,30 +2900,29 @@
       <c r="F41" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="89.109375" customWidth="1"/>
-    <col min="6" max="6" width="101.6640625" customWidth="1"/>
-    <col min="7" max="7" width="116.5546875" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="24.43"/>
+    <col customWidth="1" min="3" max="3" width="54.0"/>
+    <col customWidth="1" min="4" max="4" width="15.57"/>
+    <col customWidth="1" min="5" max="5" width="89.14"/>
+    <col customWidth="1" min="6" max="6" width="101.71"/>
+    <col customWidth="1" min="7" max="7" width="116.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2839,223 +2945,223 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="13">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -3063,12 +3169,12 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="13">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -3076,12 +3182,12 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="13">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -3089,12 +3195,12 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="13">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -3102,12 +3208,12 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="13">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -3115,12 +3221,12 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="13">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3128,7 +3234,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3137,7 +3243,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3146,7 +3252,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3155,7 +3261,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3164,7 +3270,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3173,7 +3279,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3182,7 +3288,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3191,7 +3297,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3200,7 +3306,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3209,7 +3315,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3218,7 +3324,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3227,7 +3333,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3236,7 +3342,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3245,7 +3351,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3254,7 +3360,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3263,7 +3369,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3272,7 +3378,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3281,7 +3387,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3290,7 +3396,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3299,7 +3405,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3308,7 +3414,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3317,7 +3423,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3326,7 +3432,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3336,29 +3442,28 @@
       <c r="G41" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="102.33203125" customWidth="1"/>
-    <col min="6" max="6" width="110.5546875" customWidth="1"/>
-    <col min="7" max="7" width="116.109375" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="43.43"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
+    <col customWidth="1" min="5" max="5" width="102.29"/>
+    <col customWidth="1" min="6" max="6" width="110.57"/>
+    <col customWidth="1" min="7" max="7" width="116.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3474,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3381,663 +3486,663 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="12">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="12">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="12">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="12">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="12">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="12">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="12">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="12">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="12">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="12">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="13">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="12">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="13">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4046,7 +4151,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4055,7 +4160,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4064,7 +4169,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4073,7 +4178,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4082,7 +4187,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4092,29 +4197,28 @@
       <c r="G41" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="118.5546875" customWidth="1"/>
-    <col min="6" max="6" width="109.88671875" customWidth="1"/>
-    <col min="7" max="7" width="116.33203125" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="66.14"/>
+    <col customWidth="1" min="4" max="4" width="18.29"/>
+    <col customWidth="1" min="5" max="5" width="118.57"/>
+    <col customWidth="1" min="6" max="6" width="109.86"/>
+    <col customWidth="1" min="7" max="7" width="116.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -4137,225 +4241,225 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="12">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="13">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -4366,249 +4470,249 @@
         <v>44</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="12">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="12">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="12">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="12">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="13">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="12">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="12">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="12">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -4616,96 +4720,96 @@
         <v>75</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="12">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="13">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -4713,32 +4817,32 @@
         <v>75</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4747,7 +4851,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4756,7 +4860,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4765,7 +4869,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4774,7 +4878,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4783,7 +4887,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4792,7 +4896,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4801,7 +4905,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4810,7 +4914,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4820,6 +4924,6 @@
       <c r="G41" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>